--- a/work/filtered_cpds_th1.3.xlsx
+++ b/work/filtered_cpds_th1.3.xlsx
@@ -7,17 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="pgi" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="pgk" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="yihR" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="gpmM" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="glpX" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="bglB" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="yihX" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pgi" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="crr" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="pgk" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="bglB" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="fbaB" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="ascB" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="fbaB" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="fbaA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="yihX" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="crr" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="fbaA" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="yihR" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="glpX" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="gpmM" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -77,14 +77,14 @@
     </border>
     <border>
       <left/>
-      <right style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,75 +482,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>pgi</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9880952380952381</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0119047619047619</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>bglB</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
@@ -655,59 +586,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9940476190476191</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.005952380952380952</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -723,7 +623,213 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>glpX</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0234375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>gpmM</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9765625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0234375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>bglB</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>pgi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ascB</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>crr</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -740,7 +846,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ascB</t>
+          <t>glpX</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -757,7 +863,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>crr</t>
+          <t>pgk</t>
         </is>
       </c>
     </row>
@@ -768,10 +874,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9940476190476191</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -781,173 +887,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005952380952380952</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>glpX</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>pgk</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9761904761904762</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="C4" t="n">
         <v>0.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>yihR</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9823529411764705</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.01764705882352941</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>gpmM</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9823529411764705</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.01764705882352941</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +915,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>glpX</t>
+          <t>bglB</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr"/>
@@ -984,7 +927,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9823529411764705</v>
+        <v>0.9765625</v>
       </c>
     </row>
     <row r="3">
@@ -994,7 +937,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01764705882352941</v>
+        <v>0.0234375</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,29 +962,51 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>bglB</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
+          <t>yihR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9823529411764705</v>
+          <t>fbaB</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01764705882352941</v>
+        <v>0.9920634920634921</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.007936507936507936</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1088,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9940476190476191</v>
+        <v>0.9920634920634921</v>
       </c>
       <c r="C4" t="n">
         <v>0.5</v>
@@ -1142,7 +1107,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005952380952380952</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C5" t="n">
         <v>0.5</v>
@@ -1180,7 +1145,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>yihR</t>
+          <t>bglB</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1197,7 +1162,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>fbaB</t>
+          <t>fbaA</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1173,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
@@ -1221,7 +1186,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C4" t="n">
         <v>0.5</v>
@@ -1238,7 +1203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,51 +1214,29 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>bglB</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
+          <t>yihR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>fbaA</t>
-        </is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9765625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9880952380952381</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0119047619047619</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.0234375</v>
       </c>
     </row>
   </sheetData>
